--- a/ExcelTestInputData/TestData.xlsx
+++ b/ExcelTestInputData/TestData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="30" windowWidth="20115" windowHeight="8010" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="2520" windowWidth="16155" windowHeight="6540"/>
   </bookViews>
   <sheets>
     <sheet name="Login" sheetId="2" r:id="rId1"/>
@@ -12,6 +12,7 @@
     <sheet name="Register" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="125725"/>
+  <oleSize ref="A1:N20"/>
 </workbook>
 </file>
 
@@ -87,13 +88,13 @@
     <t>france@123</t>
   </si>
   <si>
-    <t>francedaisy111@gmail.com</t>
-  </si>
-  <si>
-    <t>europesonakshi1111@hotmail.com</t>
-  </si>
-  <si>
-    <t>indiacountry111@gmail.com</t>
+    <t>indiacountry100@gmail.com</t>
+  </si>
+  <si>
+    <t>europesonakshi110@hotmail.com</t>
+  </si>
+  <si>
+    <t>francedaisy100@gmail.com</t>
   </si>
 </sst>
 </file>
@@ -469,7 +470,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -600,8 +603,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -638,7 +641,7 @@
         <v>16</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D2" s="3" t="s">
         <v>17</v>
@@ -672,7 +675,7 @@
         <v>19</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D4" s="3" t="s">
         <v>22</v>
